--- a/Documentation/JulianSkeleWarHours.xlsx
+++ b/Documentation/JulianSkeleWarHours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Day</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,25 +827,58 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
+      <c r="A28" s="2">
+        <v>42244</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" ref="E28:E29" si="3">MOD(C28-B28,1)*24-D28</f>
+        <v>5.0000000000000009</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
+      <c r="A29" s="2">
+        <v>42247</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="8">
+        <f>SUM(E28:E29)</f>
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/JulianSkeleWarHours.xlsx
+++ b/Documentation/JulianSkeleWarHours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Day</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,6 +883,56 @@
         <v>14</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>42253</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C32" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <f>MOD(C32-B32,1)*24-D32</f>
+        <v>4.0000000000000018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>42254</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <f>MOD(C33-B33,1)*24-D33</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="8">
+        <f>SUM(E32:E33)</f>
+        <v>15.000000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/JulianSkeleWarHours.xlsx
+++ b/Documentation/JulianSkeleWarHours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Day</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,6 +936,74 @@
         <v>15.000000000000002</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>42258</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <f>MOD(C36-B36,1)*24-D36</f>
+        <v>2.0000000000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>42260</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4">
+        <f>MOD(C37-B37,1)*24-D37</f>
+        <v>11.000000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>42261</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" ref="E38:E39" si="4">MOD(C38-B38,1)*24-D38</f>
+        <v>12.000000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="8">
+        <f>SUM(E36:E38)</f>
+        <v>25.000000000000007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/JulianSkeleWarHours.xlsx
+++ b/Documentation/JulianSkeleWarHours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Day</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" ref="E38:E39" si="4">MOD(C38-B38,1)*24-D38</f>
+        <f t="shared" ref="E38" si="4">MOD(C38-B38,1)*24-D38</f>
         <v>12.000000000000002</v>
       </c>
     </row>
@@ -1002,6 +1005,128 @@
       <c r="E39" s="8">
         <f>SUM(E36:E38)</f>
         <v>25.000000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>42263</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" ref="E41:E46" si="5">MOD(C41-B41,1)*24-D41</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>42264</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C42" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42265</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="5"/>
+        <v>9.0000000000000018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>42266</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>42267</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C45" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>42268</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="8">
+        <f>SUM(E41:E46)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JulianSkeleWarHours.xlsx
+++ b/Documentation/JulianSkeleWarHours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Day</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,6 +1132,74 @@
         <v>35</v>
       </c>
     </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>42280</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" ref="E49:E51" si="6">MOD(C49-B49,1)*24-D49</f>
+        <v>5.4999999999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>42281</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>42282</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C51" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="6"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="8">
+        <f>SUM(E49:E51)</f>
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/JulianSkeleWarHours.xlsx
+++ b/Documentation/JulianSkeleWarHours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Day</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,6 +1203,110 @@
         <v>23</v>
       </c>
     </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>42284</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" ref="E54:E58" si="7">MOD(C54-B54,1)*24-D54</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>42285</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C55" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000018</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>42286</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>42288</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C57" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>42289</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C58" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D58">
+        <v>12</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="8">
+        <f>SUM(E54:E58)</f>
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/JulianSkeleWarHours.xlsx
+++ b/Documentation/JulianSkeleWarHours.xlsx
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" ref="E54:E58" si="7">MOD(C54-B54,1)*24-D54</f>
+        <f t="shared" ref="E54:E59" si="7">MOD(C54-B54,1)*24-D54</f>
         <v>4</v>
       </c>
     </row>
@@ -1299,12 +1299,30 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="1" t="s">
+      <c r="A59" s="2">
+        <v>42290</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="8">
-        <f>SUM(E54:E58)</f>
-        <v>31</v>
+      <c r="E60" s="8">
+        <f>SUM(E54:E59)</f>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/JulianSkeleWarHours.xlsx
+++ b/Documentation/JulianSkeleWarHours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Day</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,6 +1328,110 @@
         <v>33</v>
       </c>
     </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>42290</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" ref="E62:E66" si="8">MOD(C62-B62,1)*24-D62</f>
+        <v>3.9999999999999991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>42292</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>42294</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>42295</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="8"/>
+        <v>10.000000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>42296</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C66" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="8"/>
+        <v>12.000000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="8">
+        <f>SUM(E62:E66)</f>
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
